--- a/Instances/K0011221_Binomial_b2_fe0_en_rk0_ll0_l20_HFalse_c0.xlsx
+++ b/Instances/K0011221_Binomial_b2_fe0_en_rk0_ll0_l20_HFalse_c0.xlsx
@@ -995,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>20</v>
@@ -1027,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>6</v>
@@ -1091,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>6</v>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -1283,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
